--- a/tests/server/fixtures/file-success/OMB-1020-09302020-simple-v1.xlsx
+++ b/tests/server/fixtures/file-success/OMB-1020-09302020-simple-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/usdr/cares-reporter/tests/server/fixtures/file-success/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F9EB06-C5C4-5145-B42C-0617FD48E8E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDCBFD1-6E3D-E049-96AB-3488F0B88D86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="21140" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certification" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="345">
   <si>
     <t>Certification</t>
   </si>
@@ -582,9 +582,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>6/30/2020/</t>
   </si>
   <si>
     <t>Subrecipient Organization (Borrower)</t>
@@ -7968,36 +7965,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="18">
         <v>1020</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="48">
         <v>2163121.9700000002</v>
@@ -8008,7 +8005,7 @@
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="18">
         <v>1020</v>
@@ -8025,13 +8022,13 @@
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="18"/>
     </row>
@@ -9039,7 +9036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -9056,13 +9053,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
@@ -10101,46 +10098,46 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
       <c r="A1" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="C1" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="F1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="49" t="s">
+      <c r="J1" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="49" t="s">
         <v>222</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>223</v>
       </c>
       <c r="O1" s="49"/>
       <c r="P1" s="49"/>
@@ -10157,7 +10154,7 @@
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>7</v>
@@ -10169,34 +10166,34 @@
         <v>38</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" s="50" t="s">
         <v>116</v>
       </c>
       <c r="G2" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="50" t="s">
         <v>226</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>227</v>
       </c>
       <c r="I2" s="50" t="s">
         <v>166</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L2" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="M2" s="50" t="s">
-        <v>208</v>
-      </c>
       <c r="N2" s="50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
@@ -10213,31 +10210,31 @@
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
       <c r="A3" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="G3" s="18">
         <v>1</v>
       </c>
       <c r="H3" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>234</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>235</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>177</v>
@@ -10246,7 +10243,7 @@
         <v>177</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>177</v>
@@ -10257,105 +10254,105 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="B4" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>238</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>239</v>
       </c>
       <c r="G4" s="18">
         <v>2</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>176</v>
       </c>
       <c r="J4" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>242</v>
-      </c>
       <c r="L4" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="B5" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>247</v>
-      </c>
       <c r="L5" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
       <c r="B6" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>250</v>
-      </c>
       <c r="L6" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="C7" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="L7" s="18" t="s">
         <v>252</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="C8" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>82</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
@@ -10363,7 +10360,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
@@ -10371,7 +10368,7 @@
         <v>84</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
@@ -10379,15 +10376,15 @@
         <v>89</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="C12" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>259</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
@@ -10395,7 +10392,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
@@ -10403,7 +10400,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
@@ -10411,36 +10408,36 @@
         <v>112</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="C16" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>264</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="15" customHeight="1">
       <c r="C17" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>266</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="15" customHeight="1">
       <c r="C18" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="15" customHeight="1">
       <c r="C19" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>161</v>
@@ -10448,50 +10445,50 @@
     </row>
     <row r="20" spans="3:4" ht="15" customHeight="1">
       <c r="C20" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15" customHeight="1">
       <c r="C21" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>273</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="15" customHeight="1">
       <c r="C22" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15" customHeight="1">
       <c r="C23" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="15" customHeight="1">
       <c r="C24" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>279</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15" customHeight="1">
       <c r="C25" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>281</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="15" customHeight="1">
@@ -10499,17 +10496,17 @@
         <v>163</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="15" customHeight="1">
       <c r="D27" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="15" customHeight="1">
       <c r="C28" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>56</v>
@@ -10517,102 +10514,102 @@
     </row>
     <row r="29" spans="3:4" ht="15" customHeight="1">
       <c r="D29" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="15" customHeight="1">
       <c r="D30" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15" customHeight="1">
       <c r="D31" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="15" customHeight="1">
       <c r="D32" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="15" customHeight="1">
       <c r="D33" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="15" customHeight="1">
       <c r="D34" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="15" customHeight="1">
       <c r="D35" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="15" customHeight="1">
       <c r="D36" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="15.75" customHeight="1">
       <c r="D37" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="4:4" ht="15.75" customHeight="1">
       <c r="D38" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="4:4" ht="15.75" customHeight="1">
       <c r="D39" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="4:4" ht="15.75" customHeight="1">
       <c r="D40" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="4:4" ht="15.75" customHeight="1">
       <c r="D41" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="4:4" ht="15.75" customHeight="1">
       <c r="D42" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="4:4" ht="15.75" customHeight="1">
       <c r="D43" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="4:4" ht="15.75" customHeight="1">
       <c r="D44" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="4:4" ht="15.75" customHeight="1">
       <c r="D45" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="4:4" ht="15.75" customHeight="1">
       <c r="D46" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="4:4" ht="15.75" customHeight="1">
       <c r="D47" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="4:4" ht="15.75" customHeight="1">
       <c r="D48" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="4:4" ht="15.75" customHeight="1">
@@ -10622,62 +10619,62 @@
     </row>
     <row r="50" spans="4:4" ht="15.75" customHeight="1">
       <c r="D50" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="4:4" ht="15.75" customHeight="1">
       <c r="D51" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="4:4" ht="15.75" customHeight="1">
       <c r="D52" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="4:4" ht="15.75" customHeight="1">
       <c r="D53" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="4:4" ht="15.75" customHeight="1">
       <c r="D54" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="4:4" ht="15.75" customHeight="1">
       <c r="D55" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="4:4" ht="15.75" customHeight="1">
       <c r="D56" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="4:4" ht="15.75" customHeight="1">
       <c r="D57" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="4:4" ht="15.75" customHeight="1">
       <c r="D58" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="4:4" ht="15.75" customHeight="1">
       <c r="D59" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="4:4" ht="15.75" customHeight="1">
       <c r="D60" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="4:4" ht="15.75" customHeight="1">
       <c r="D61" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="4:4" ht="15.75" customHeight="1"/>
@@ -11642,12 +11639,12 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
       <c r="A1" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -11662,21 +11659,21 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="A5" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="49"/>
       <c r="B7" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
@@ -11701,7 +11698,7 @@
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="55"/>
@@ -11712,7 +11709,7 @@
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="55"/>
@@ -11723,7 +11720,7 @@
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="54">
@@ -11743,7 +11740,7 @@
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="55"/>
@@ -11754,7 +11751,7 @@
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
@@ -11765,7 +11762,7 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="54">
@@ -11785,7 +11782,7 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="55"/>
@@ -11796,7 +11793,7 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="55"/>
@@ -11807,7 +11804,7 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="54">
@@ -11827,7 +11824,7 @@
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="55"/>
@@ -11838,7 +11835,7 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="55"/>
@@ -11849,7 +11846,7 @@
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="54">
@@ -11869,7 +11866,7 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B20" s="54"/>
       <c r="C20" s="55"/>
@@ -11880,7 +11877,7 @@
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B21" s="54"/>
       <c r="C21" s="55"/>
@@ -11891,7 +11888,7 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="54">
@@ -11911,7 +11908,7 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1">
       <c r="A23" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B23" s="55"/>
       <c r="C23" s="54"/>
@@ -11922,7 +11919,7 @@
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1">
       <c r="A24" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" s="56"/>
       <c r="C24" s="56">
@@ -12981,7 +12978,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="3">
         <v>1020</v>
@@ -14059,7 +14056,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>22</v>
@@ -14075,7 +14072,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>24</v>
@@ -14091,7 +14088,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>27</v>
@@ -14107,7 +14104,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>30</v>
@@ -22985,8 +22982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AR1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -23196,8 +23193,8 @@
       <c r="V2" s="24">
         <v>43969.648842592593</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>178</v>
+      <c r="W2" s="8">
+        <v>44012</v>
       </c>
       <c r="X2" s="29">
         <v>585520</v>
@@ -27760,22 +27757,22 @@
         <v>113</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>122</v>
@@ -27784,10 +27781,10 @@
         <v>123</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>126</v>
@@ -27799,7 +27796,7 @@
         <v>128</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>131</v>
@@ -27808,13 +27805,13 @@
         <v>130</v>
       </c>
       <c r="R1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="U1" s="21" t="s">
         <v>135</v>
@@ -27885,7 +27882,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="22">
         <v>50311.8</v>
@@ -27918,7 +27915,7 @@
         <v>50</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P2" s="22">
         <v>50311.8</v>
@@ -27941,7 +27938,7 @@
         <v>86</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3" s="30">
         <v>50529.599999999999</v>
@@ -27972,7 +27969,7 @@
         <v>50</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P3" s="30">
         <v>50529.599999999999</v>
@@ -27995,7 +27992,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="22">
         <v>50856.3</v>
@@ -28028,7 +28025,7 @@
         <v>50</v>
       </c>
       <c r="O4" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P4" s="22">
         <v>50856.3</v>
@@ -30289,22 +30286,22 @@
         <v>113</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>130</v>
@@ -30390,7 +30387,7 @@
         <v>102</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" s="29">
         <v>32416.32</v>
@@ -30399,10 +30396,10 @@
         <v>43987.643125000002</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="H2" s="36">
         <v>1020</v>
@@ -32792,13 +32789,13 @@
         <v>113</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>130</v>

--- a/tests/server/fixtures/file-success/OMB-1020-09302020-simple-v1.xlsx
+++ b/tests/server/fixtures/file-success/OMB-1020-09302020-simple-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/usdr/cares-reporter/tests/server/fixtures/file-success/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDCBFD1-6E3D-E049-96AB-3488F0B88D86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CD4B90-CEF0-B240-91DD-2D2AE0355A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="346">
   <si>
     <t>Certification</t>
   </si>
@@ -1084,6 +1084,9 @@
   <si>
     <t>OMB</t>
   </si>
+  <si>
+    <t>6/30/2020/</t>
+  </si>
 </sst>
 </file>
 
@@ -1369,7 +1372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1459,6 +1462,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22983,7 +22987,7 @@
   <dimension ref="A1:AR1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -23193,8 +23197,8 @@
       <c r="V2" s="24">
         <v>43969.648842592593</v>
       </c>
-      <c r="W2" s="8">
-        <v>44012</v>
+      <c r="W2" s="59" t="s">
+        <v>345</v>
       </c>
       <c r="X2" s="29">
         <v>585520</v>
